--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,112 +506,112 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,91 +647,91 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -761,27 +761,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,26 +827,26 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,32 +956,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1037,11 +1037,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1097,21 +1097,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1157,21 +1157,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,72 +1196,72 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1330,36 +1330,6 @@
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,112 +506,112 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,91 +647,91 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -761,27 +761,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,26 +827,26 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,32 +956,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1037,11 +1037,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1097,21 +1097,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1157,21 +1157,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,72 +1196,72 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1316,20 +1316,50 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>The ground or walls may contain metal</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15-21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>22-30</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
